--- a/TestForJob/TestForJob/users_information.xlsx
+++ b/TestForJob/TestForJob/users_information.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R1906f1bad1b243f5"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R99dbfb96f39a4408"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>User id</x:t>
   </x:si>
@@ -110,10 +110,19 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>TEST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/01/2021 18:37:10</x:t>
+    <x:t>Jose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Herrera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>878988907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:33:23</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -140,31 +149,82 @@
     <x:t>31/01/2021 20:26:04</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEST4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/01/2021 20:36:42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/01/2021 20:47:46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/01/2021 21:08:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31/01/2021 23:05:09</x:t>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/01/2021 23:55:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test-test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type-Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/01/2021 23:59:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:03:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:04:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:05:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:06:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:07:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:08:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:12:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:28:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/02/2021 0:33:24</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -495,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:F14"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -629,156 +689,296 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>43</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>43</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>43</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>43</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F11" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B14" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C14" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="D14" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F14" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
         <x:v>50</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D17" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>70</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
